--- a/Designs/input module/Input module microprocessor state diagram.xlsx
+++ b/Designs/input module/Input module microprocessor state diagram.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inksd\Desktop\16 bit computer\Designs\interrupt module\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inksd\Desktop\16 bit computer\Designs\input module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C2ED72-B18F-45DE-A52E-E2190645C502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA0532A-0D41-47F3-BE58-BFBF64FAAB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BE9755DE-4443-4CD8-90C4-8202C859649D}"/>
   </bookViews>
@@ -1881,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA624615-4DF3-4610-8268-E6B2CB35F172}">
   <dimension ref="AB39:AL94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y63" sqref="Y63"/>
+    <sheetView tabSelected="1" topLeftCell="U33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH49" sqref="AH49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Designs/input module/Input module microprocessor state diagram.xlsx
+++ b/Designs/input module/Input module microprocessor state diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inksd\Desktop\16 bit computer\Designs\input module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA0532A-0D41-47F3-BE58-BFBF64FAAB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CB409A-88F3-4361-A37D-B1552CF95E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BE9755DE-4443-4CD8-90C4-8202C859649D}"/>
   </bookViews>
@@ -1036,15 +1036,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>71718</xdr:colOff>
+      <xdr:colOff>71719</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>541725</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>12807</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1058,9 +1058,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="19578918" y="7171765"/>
-          <a:ext cx="7175607" cy="12807"/>
+        <a:xfrm flipH="1">
+          <a:off x="19578919" y="7171765"/>
+          <a:ext cx="4867834" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1882,7 +1882,7 @@
   <dimension ref="AB39:AL94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH49" sqref="AH49"/>
+      <selection activeCell="AQ44" sqref="AQ44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
